--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Hamdy Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد شوقي عبد السلام محمد عتمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
   </x:si>
   <x:si>
     <x:t>1220096</x:t>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -734,8 +743,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.620625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="56.100625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="59.530625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1168,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.0848847222</x:v>
+        <x:v>45922.5167543634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.085581169</x:v>
+        <x:v>45913.0848847222</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45913.085581169</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.0835952894</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6652144329</x:v>
+        <x:v>45913.0835952894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4471974537</x:v>
+        <x:v>45906.6652144329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45909.4471974537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.0752474884</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45913.0752474884</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4253844097</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45909.4253844097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1802,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45906.6660025116</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ محمد السيد هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210390</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45927.0666777778</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4253844097</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45909.4253844097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45906.6660025116</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amar Ali Awaad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو ابراهيم المصري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed amr ebrahim elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45927.4155782755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.0666777778</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6652299769</x:v>
+        <x:v>45927.0666777778</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.6652299769</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4253844097</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6660025116</x:v>
+        <x:v>45909.4253844097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.6660025116</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electronics-2: Analog and Digital Electronics (EECS201) Location : [20109]20109-45-الجيزة الرئيسي Time : Monday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>MANAR FARGHALY ABDELRAHMAN ABDELSHAFY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران شمس الدين محمد علوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.6650695255</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6650695255</x:v>
+        <x:v>45909.4253844097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4253844097</x:v>
+        <x:v>45906.6660025116</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.6660025116</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electronics-2: Analog and Digital Electronics (EECS201) Location : [20109]20109-45-الجيزة الرئيسي Time : Monday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -282,7 +282,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1210162</x:t>

--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -273,7 +273,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220197</x:t>

--- a/downloaded_files/EECS201_Lecture-35294.xlsx
+++ b/downloaded_files/EECS201_Lecture-35294.xlsx
@@ -156,7 +156,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210018</x:t>
@@ -201,7 +201,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220071</x:t>
